--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_21.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>365505.8863012182</v>
+        <v>397421.0495659767</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484449</v>
+        <v>492028.9342484443</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8072065.237153882</v>
+        <v>8103630.89599619</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +659,16 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>77.05491861183536</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>212.0209318124667</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -823,19 +823,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>59.44220674645926</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>144.8929367951739</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>52.19432475698605</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>29.21555647500302</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1066,13 +1066,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>98.98021706930163</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>48.97699886889384</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>362.6925449676605</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>204.2461075661328</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1142,7 +1142,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1294,19 +1294,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>128.1433646052443</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1351,10 +1351,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>32.67077719907196</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1436,7 +1436,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>392.8222093848744</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>152.5168019860612</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>82.1420163755141</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1591,7 +1591,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1619,13 +1619,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>129.3727203283471</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>147.3525275309929</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907118</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225723</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>248.9778919109229</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1856,7 +1856,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>212.6006968854799</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>18.05677735225762</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225712</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>32.67077719907106</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>91.3922693100219</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>18.05677735225703</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2479,13 +2479,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>93.15725658380887</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -2533,7 +2533,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>82.43648595644035</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2725,13 +2725,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>2.00851315945539</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225773</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2779,7 +2779,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2959,16 +2959,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,10 +3004,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>48.28314334362872</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>180.93060631688</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>18.05677735225797</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800578</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3433,16 +3433,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>130.6556207749489</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>122.974276743058</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3512,16 +3512,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791326448</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3563,10 +3563,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3664,7 +3664,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>24.62703520776674</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3676,7 +3676,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>18.05677735225774</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3743,19 +3743,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3797,16 +3797,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655129</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>69.45405731752581</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>24.62703520776694</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3913,7 +3913,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3977,25 +3977,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.412621479131467</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4034,16 +4034,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4138,7 +4138,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>24.62703520776513</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4198,7 +4198,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>239.7909713904973</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>953.7216493527885</v>
+        <v>1426.217650242509</v>
       </c>
       <c r="C2" t="n">
-        <v>919.6195805766158</v>
+        <v>988.0751774259327</v>
       </c>
       <c r="D2" t="n">
-        <v>887.7501997914644</v>
+        <v>956.2057966407813</v>
       </c>
       <c r="E2" t="n">
-        <v>459.1685255287327</v>
+        <v>878.3725455177153</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>450.505115926923</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018685</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018685</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018685</v>
       </c>
       <c r="J2" t="n">
-        <v>267.8706684926505</v>
+        <v>484.3619720031047</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311667</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489129</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489129</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489129</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489129</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797691</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756286</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509343</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>2455.364227509343</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>2235.297000382381</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>2235.297000382381</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>1872.680050316208</v>
       </c>
       <c r="W2" t="n">
-        <v>1399.368998877924</v>
+        <v>1871.864999767645</v>
       </c>
       <c r="X2" t="n">
-        <v>980.2265354572348</v>
+        <v>1452.722536346956</v>
       </c>
       <c r="Y2" t="n">
-        <v>975.9808157972923</v>
+        <v>1448.476816687013</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1298.296211021827</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>1191.839749858469</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>1096.749461005022</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>1002.629046331976</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>919.2452079481375</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>833.8601182143213</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>792.1244660305338</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>818.1881391909914</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>1142.746464157204</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1750.449110465766</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1797.452510782927</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1797.452510782927</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1797.452510782927</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1797.452510782927</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1797.452510782927</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>2338.191449415003</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509343</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2391.908789957726</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2261.730146288327</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>2085.393599288296</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1886.276081350295</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1700.953327083489</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1546.085891322369</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1419.60011210159</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>858.7506050139928</v>
+        <v>958.4074414128055</v>
       </c>
       <c r="C4" t="n">
-        <v>686.1888934972177</v>
+        <v>785.8457298960304</v>
       </c>
       <c r="D4" t="n">
-        <v>520.3109006987404</v>
+        <v>619.9677370975531</v>
       </c>
       <c r="E4" t="n">
-        <v>350.5528969494776</v>
+        <v>619.9677370975531</v>
       </c>
       <c r="F4" t="n">
-        <v>173.8458429112338</v>
+        <v>443.2606830593093</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>277.669408085137</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>137.7672337755115</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018685</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>135.6869697148767</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>200.0427573423686</v>
       </c>
       <c r="L4" t="n">
-        <v>120.5233537662982</v>
+        <v>618.2526391103296</v>
       </c>
       <c r="M4" t="n">
-        <v>540.5762527112014</v>
+        <v>1077.736506291243</v>
       </c>
       <c r="N4" t="n">
-        <v>960.6291516561047</v>
+        <v>1519.995309448887</v>
       </c>
       <c r="O4" t="n">
-        <v>1380.298400881886</v>
+        <v>1939.664558674669</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2287.171452645011</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509343</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509343</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2296.122858807339</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>2050.243412385794</v>
       </c>
       <c r="U4" t="n">
-        <v>1292.062614956869</v>
+        <v>1990.200779308563</v>
       </c>
       <c r="V4" t="n">
-        <v>1005.1071068273</v>
+        <v>1703.245271178993</v>
       </c>
       <c r="W4" t="n">
-        <v>1005.1071068273</v>
+        <v>1431.218866765285</v>
       </c>
       <c r="X4" t="n">
-        <v>1005.1071068273</v>
+        <v>1185.827112098697</v>
       </c>
       <c r="Y4" t="n">
-        <v>858.7506050139928</v>
+        <v>958.4074414128055</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>988.4253830378252</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C5" t="n">
-        <v>954.3233142616525</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D5" t="n">
-        <v>922.4539334765011</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E5" t="n">
-        <v>892.7195926752004</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>464.8521630844081</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>63.454331707672</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1294.102365436318</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1393.464329137293</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1393.464329137293</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1030.847379071119</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1030.032328522557</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X5" t="n">
-        <v>1014.930269142272</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y5" t="n">
-        <v>1010.684549482329</v>
+        <v>1841.81718876183</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>686.1888934972177</v>
+        <v>1092.537220072603</v>
       </c>
       <c r="C7" t="n">
-        <v>686.1888934972177</v>
+        <v>919.9755085558282</v>
       </c>
       <c r="D7" t="n">
-        <v>520.3109006987404</v>
+        <v>754.0975157573509</v>
       </c>
       <c r="E7" t="n">
-        <v>350.5528969494776</v>
+        <v>584.3395120080881</v>
       </c>
       <c r="F7" t="n">
-        <v>173.8458429112338</v>
+        <v>407.6324579698444</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>242.041182995672</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>726.9120049407049</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1146.964903885608</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1567.017802830512</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1567.017802830512</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V7" t="n">
-        <v>1172.870982911978</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W7" t="n">
-        <v>1123.399266882792</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X7" t="n">
-        <v>878.0075122162048</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y7" t="n">
-        <v>878.0075122162048</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>560.3451554119297</v>
+        <v>345.1411632272193</v>
       </c>
       <c r="C8" t="n">
-        <v>526.2430866357571</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>494.3737058506057</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>464.6393650493049</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>472.0266229114305</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>927.0793242105242</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>927.0793242105242</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>927.0793242105242</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>927.0793242105242</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1214.390006873481</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873481</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172575</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1754.944899109468</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1754.944899109468</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1754.944899109468</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>1754.944899109468</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W8" t="n">
-        <v>1754.129848560906</v>
+        <v>1598.869320833163</v>
       </c>
       <c r="X8" t="n">
-        <v>1334.987385140216</v>
+        <v>1179.726857412474</v>
       </c>
       <c r="Y8" t="n">
-        <v>926.7012614398697</v>
+        <v>771.4407337121271</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864477</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761163</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230017</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897023</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851826</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842762</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>842.4466348842762</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>842.4466348842762</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>842.4466348842762</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>842.4466348842762</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>427.4313382261117</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>254.8696267093366</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>254.8696267093366</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>254.8696267093366</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>254.8696267093366</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>254.8696267093366</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838373</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851263</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>311.5303900296482</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>729.7402717976092</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>903.2278548651758</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>903.2278548651758</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1322.897104090957</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.403998061299</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1817.178951631003</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1657.937582929</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1412.058136507455</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1133.62513576056</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>846.6696276309906</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>846.6696276309906</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>846.6696276309906</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>619.2499569450988</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062125</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C11" t="n">
         <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419993</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578288</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874956</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
-        <v>386.282920610759</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397518</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>403.2461837293682</v>
       </c>
       <c r="K11" t="n">
-        <v>531.9906641340331</v>
+        <v>1237.596475687546</v>
       </c>
       <c r="L11" t="n">
-        <v>531.9906641340331</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="M11" t="n">
-        <v>1186.925458503959</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940406</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510713</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344109</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302703</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R11" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4803.798049006192</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4803.798049006192</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.575746323208</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.958796257035</v>
+        <v>4170.462783046461</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3765.607328457494</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247379</v>
+        <v>3346.464865036805</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547033</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5121,16 +5121,16 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
         <v>1102.064021433509</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1030.203747470687</v>
+        <v>1157.289801519718</v>
       </c>
       <c r="C13" t="n">
-        <v>857.6420359539115</v>
+        <v>1003.232425776222</v>
       </c>
       <c r="D13" t="n">
-        <v>691.7640431554344</v>
+        <v>837.3544329777443</v>
       </c>
       <c r="E13" t="n">
-        <v>522.0060394061716</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F13" t="n">
-        <v>345.2989853679278</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G13" t="n">
-        <v>179.7077103937554</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111519</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2532.736396587283</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T13" t="n">
-        <v>2286.856950165738</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U13" t="n">
-        <v>2008.423949418844</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V13" t="n">
-        <v>1721.468441289274</v>
+        <v>1902.127631285906</v>
       </c>
       <c r="W13" t="n">
-        <v>1449.442036875565</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X13" t="n">
-        <v>1449.442036875565</v>
+        <v>1384.70947220561</v>
       </c>
       <c r="Y13" t="n">
-        <v>1222.022366189674</v>
+        <v>1157.289801519718</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.656868168567</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C14" t="n">
-        <v>1814.514395351991</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D14" t="n">
-        <v>1378.604610526435</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E14" t="n">
-        <v>944.8298656847301</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F14" t="n">
-        <v>516.9624360939379</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J14" t="n">
-        <v>96.73597668111518</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K14" t="n">
-        <v>931.0862686392932</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>2006.146234892153</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>2481.810506693462</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693462</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.990173263768</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097164</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055759</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
@@ -5306,22 +5306,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112634</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429651</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363477</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774511</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353822</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653475</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580463</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412712</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D16" t="n">
         <v>608.792309442794</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935312</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F16" t="n">
         <v>262.3272516552875</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111506</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J16" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5461,25 +5461,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.276971119686</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.843970372791</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.888462243221</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.862057829513</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.470303162925</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477033</v>
+        <v>998.0484328177142</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2336.30874198473</v>
+        <v>2336.308741984731</v>
       </c>
       <c r="C17" t="n">
-        <v>1898.166269168154</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D17" t="n">
-        <v>1462.256484342598</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E17" t="n">
-        <v>1028.481739500893</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>600.6143099101008</v>
+        <v>787.2639626146351</v>
       </c>
       <c r="G17" t="n">
         <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I17" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J17" t="n">
-        <v>96.73597668111518</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K17" t="n">
-        <v>931.0862686392932</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>2006.146234892153</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>2481.810506693462</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="N17" t="n">
-        <v>2481.810506693462</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O17" t="n">
-        <v>3461.990173263768</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P17" t="n">
-        <v>4290.300048097164</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q17" t="n">
         <v>4836.798834055759</v>
@@ -5543,22 +5543,22 @@
         <v>4836.798834055759</v>
       </c>
       <c r="T17" t="n">
-        <v>4616.731606928797</v>
+        <v>4616.731606928798</v>
       </c>
       <c r="U17" t="n">
-        <v>4357.509304245814</v>
+        <v>4357.509304245815</v>
       </c>
       <c r="V17" t="n">
-        <v>3994.89235417964</v>
+        <v>3994.892354179641</v>
       </c>
       <c r="W17" t="n">
-        <v>3590.036899590674</v>
+        <v>3590.036899590675</v>
       </c>
       <c r="X17" t="n">
-        <v>3170.894436169984</v>
+        <v>3170.894436169986</v>
       </c>
       <c r="Y17" t="n">
-        <v>2762.608312469637</v>
+        <v>2762.608312469639</v>
       </c>
     </row>
     <row r="18">
@@ -5586,7 +5586,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I18" t="n">
         <v>122.7996498415728</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>947.2320137580464</v>
+        <v>965.4711828007308</v>
       </c>
       <c r="C19" t="n">
-        <v>774.6703022412713</v>
+        <v>792.9094712839558</v>
       </c>
       <c r="D19" t="n">
-        <v>608.792309442794</v>
+        <v>627.0314784854786</v>
       </c>
       <c r="E19" t="n">
-        <v>439.0343056935313</v>
+        <v>457.2734747362159</v>
       </c>
       <c r="F19" t="n">
-        <v>262.3272516552876</v>
+        <v>280.566420697972</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111518</v>
+        <v>114.9751457237996</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I19" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J19" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K19" t="n">
         <v>458.0741164169406</v>
@@ -5698,25 +5698,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2695.15641754123</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T19" t="n">
-        <v>2449.276971119686</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U19" t="n">
-        <v>2170.843970372791</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V19" t="n">
-        <v>1883.888462243221</v>
+        <v>1902.127631285906</v>
       </c>
       <c r="W19" t="n">
-        <v>1611.862057829513</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X19" t="n">
-        <v>1366.470303162925</v>
+        <v>1384.70947220561</v>
       </c>
       <c r="Y19" t="n">
-        <v>1139.050632477034</v>
+        <v>1157.289801519718</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2523.375184062124</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C20" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D20" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F20" t="n">
-        <v>787.680751987495</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I20" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J20" t="n">
         <v>531.9906641340331</v>
@@ -5756,19 +5756,19 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>2441.40092234507</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="M20" t="n">
-        <v>2441.40092234507</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="N20" t="n">
-        <v>2481.810506693462</v>
+        <v>2481.810506693463</v>
       </c>
       <c r="O20" t="n">
-        <v>3461.990173263768</v>
+        <v>3461.990173263769</v>
       </c>
       <c r="P20" t="n">
-        <v>4290.300048097164</v>
+        <v>4290.300048097165</v>
       </c>
       <c r="Q20" t="n">
         <v>4836.798834055759</v>
@@ -5777,25 +5777,25 @@
         <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4803.798049006192</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U20" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V20" t="n">
-        <v>4181.958796257035</v>
+        <v>4181.542006884175</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.103341668068</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.960878247379</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.674754547033</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I21" t="n">
         <v>122.7996498415728</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>965.4711828007303</v>
+        <v>965.4711828007306</v>
       </c>
       <c r="C22" t="n">
-        <v>792.9094712839552</v>
+        <v>792.9094712839556</v>
       </c>
       <c r="D22" t="n">
-        <v>627.0314784854779</v>
+        <v>627.0314784854784</v>
       </c>
       <c r="E22" t="n">
-        <v>457.2734747362152</v>
+        <v>457.2734747362156</v>
       </c>
       <c r="F22" t="n">
-        <v>280.5664206979714</v>
+        <v>280.5664206979719</v>
       </c>
       <c r="G22" t="n">
-        <v>114.975145723799</v>
+        <v>114.9751457237995</v>
       </c>
       <c r="H22" t="n">
-        <v>114.975145723799</v>
+        <v>114.9751457237995</v>
       </c>
       <c r="I22" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J22" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K22" t="n">
         <v>458.0741164169406</v>
@@ -5944,7 +5944,7 @@
         <v>2189.083139415475</v>
       </c>
       <c r="V22" t="n">
-        <v>1902.127631285905</v>
+        <v>1902.127631285906</v>
       </c>
       <c r="W22" t="n">
         <v>1630.101226872197</v>
@@ -5953,7 +5953,7 @@
         <v>1384.709472205609</v>
       </c>
       <c r="Y22" t="n">
-        <v>1157.289801519717</v>
+        <v>1157.289801519718</v>
       </c>
     </row>
     <row r="23">
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.710185817962</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C25" t="n">
-        <v>926.1484743011865</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D25" t="n">
-        <v>760.2704815027091</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>590.5124777534464</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
         <v>496.4142387799021</v>
@@ -6151,7 +6151,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
@@ -6181,16 +6181,16 @@
         <v>2035.366634303137</v>
       </c>
       <c r="V25" t="n">
-        <v>2035.366634303137</v>
+        <v>1952.097456569358</v>
       </c>
       <c r="W25" t="n">
-        <v>1763.340229889428</v>
+        <v>1680.07105215565</v>
       </c>
       <c r="X25" t="n">
-        <v>1517.948475222841</v>
+        <v>1434.679297489062</v>
       </c>
       <c r="Y25" t="n">
-        <v>1290.528804536949</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="26">
@@ -6215,37 +6215,37 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>3137.402081918264</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4117.581748488571</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4945.891623321967</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1017.756527079656</v>
+        <v>970.9960463903955</v>
       </c>
       <c r="C28" t="n">
-        <v>845.1948155628808</v>
+        <v>798.4343348736204</v>
       </c>
       <c r="D28" t="n">
-        <v>679.3168227644035</v>
+        <v>632.5563420751431</v>
       </c>
       <c r="E28" t="n">
-        <v>509.5588190151407</v>
+        <v>462.7983383258804</v>
       </c>
       <c r="F28" t="n">
-        <v>332.8517649768968</v>
+        <v>286.0912842876365</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134642</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176948</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008509</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878939</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.966900465231</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798643</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1209.575145798643</v>
+        <v>1162.814665109383</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>1463.16863798718</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1041.416826573035</v>
+        <v>915.9519976190925</v>
       </c>
       <c r="C31" t="n">
-        <v>868.8551150562605</v>
+        <v>743.3902861023174</v>
       </c>
       <c r="D31" t="n">
-        <v>702.9771222577832</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E31" t="n">
-        <v>533.2191185085204</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F31" t="n">
-        <v>356.5120644702766</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6625,7 +6625,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
         <v>1341.292728955479</v>
@@ -6652,19 +6652,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2265.02878318778</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1978.07327505821</v>
+        <v>1852.608446104267</v>
       </c>
       <c r="W31" t="n">
-        <v>1706.046870644502</v>
+        <v>1580.582041690559</v>
       </c>
       <c r="X31" t="n">
-        <v>1460.655115977914</v>
+        <v>1335.190287023971</v>
       </c>
       <c r="Y31" t="n">
-        <v>1233.235445292023</v>
+        <v>1107.77061633808</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>970.9960463903956</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>798.4343348736205</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>632.5563420751432</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>462.7983383258805</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>286.0912842876368</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>120.5000093134644</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752035</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.60800300514</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1635.626090461862</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.234335795275</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1162.814665109383</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6917,19 +6917,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903948</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736197</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D37" t="n">
-        <v>632.5563420751425</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258797</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>330.8229638057298</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7123,22 +7123,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109382</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835214</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436409</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7242,10 +7242,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
         <v>128.3245134312372</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>970.9960463903956</v>
+        <v>811.7546776883919</v>
       </c>
       <c r="C40" t="n">
-        <v>798.4343348736205</v>
+        <v>639.1929661716168</v>
       </c>
       <c r="D40" t="n">
-        <v>632.5563420751432</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E40" t="n">
-        <v>462.7983383258805</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>286.0912842876367</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>120.5000093134642</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
         <v>881.8088617745661</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752035</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.60800300514</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W40" t="n">
-        <v>1635.626090461862</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.234335795275</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y40" t="n">
-        <v>1162.814665109383</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
         <v>1654.847790009657</v>
@@ -7397,7 +7397,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
         <v>391.8077842004234</v>
@@ -7406,55 +7406,55 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7479,10 +7479,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
         <v>128.3245134312372</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1092.659051657336</v>
+        <v>811.7546776883921</v>
       </c>
       <c r="C43" t="n">
-        <v>920.0973401405614</v>
+        <v>639.1929661716171</v>
       </c>
       <c r="D43" t="n">
-        <v>754.2193473420841</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E43" t="n">
-        <v>584.4613435928213</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F43" t="n">
-        <v>407.7542895545776</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745663</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
         <v>1341.292728955479</v>
@@ -7594,25 +7594,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2473.041003752035</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2194.60800300514</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V43" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W43" t="n">
-        <v>1635.626090461862</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X43" t="n">
-        <v>1390.234335795275</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y43" t="n">
-        <v>1162.814665109383</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F44" t="n">
-        <v>793.20561557716</v>
+        <v>793.2056155771588</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2588.899621423629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7716,10 +7716,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
         <v>128.3245134312372</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>811.7546776883911</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>639.192966171616</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>639.192966171616</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>469.4349624223532</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>292.7279083841092</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>127.1366334099364</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>127.1366334099364</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
         <v>188.8405254354695</v>
@@ -7810,7 +7810,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>881.808861774566</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
         <v>1341.292728955479</v>
@@ -7828,28 +7828,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T46" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457407</v>
       </c>
       <c r="U46" t="n">
-        <v>2035.366634303136</v>
+        <v>2173.190181710512</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.411126173566</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W46" t="n">
-        <v>1476.384721759858</v>
+        <v>1614.208269167234</v>
       </c>
       <c r="X46" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1003.573296407378</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773357</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805804222</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773356</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773356</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>47.47818213854703</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,22 +8137,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>65.00584608837562</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,13 +8231,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.1525905495951</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>131.4804315655613</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,10 +8453,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>290.2128107706632</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314079</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>288.2218006662745</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8617,10 +8617,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>175.2399828965318</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457102</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>661.5502973433599</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8769,19 +8769,19 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8933,7 +8933,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>480.468961415464</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9170,7 +9170,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>480.468961415464</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9404,13 +9404,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>40.81776196807232</v>
+        <v>1126.736919799244</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9893,10 +9893,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>168.8387779969835</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10127,13 +10127,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10355,22 +10355,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1005.515419242839</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.407914635246</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.407914635246</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>143.407914635246</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.1445778789294</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>11.38105307846865</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>18.31929241554607</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>56.36113619101512</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>268.0111327346217</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>267.5985112554895</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>139.592177662726</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>184.783156177488</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>184.7831561774889</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627262</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,16 +24017,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>185.1957776566207</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>267.5985112554898</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>69.71657238081438</v>
+        <v>69.7165723808139</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>81.78272691405246</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>201.6494670918335</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>161.9268490649752</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>120.4463752142715</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,10 +24892,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>227.365527395797</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>103.1553467313938</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>120.4463752142713</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>44.28436272291245</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>120.4463752142713</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>120.4463752142715</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>120.4463752142714</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>139.5921776627256</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>63.14631452530628</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>3.146865729424292</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>687441.1998425063</v>
+        <v>697160.4649941936</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>687441.1998425063</v>
+        <v>699912.7019001737</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>689254.0046243736</v>
+        <v>699912.7019001737</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>683740.2851127015</v>
+        <v>683740.2851127014</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>683740.2851127014</v>
+        <v>683740.2851127016</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>683740.2851127014</v>
+        <v>683740.2851127015</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>712594.906466807</v>
+        <v>712594.9064668068</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>712594.9064668069</v>
+        <v>712594.9064668068</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>712594.9064668069</v>
+        <v>712594.9064668068</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>712594.9064668069</v>
+        <v>712594.9064668068</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>712594.9064668069</v>
+        <v>712594.9064668068</v>
       </c>
     </row>
   </sheetData>
@@ -26320,16 +26320,16 @@
         <v>281477.3429424645</v>
       </c>
       <c r="E2" t="n">
+        <v>265400.0464351301</v>
+      </c>
+      <c r="F2" t="n">
         <v>265400.0464351302</v>
       </c>
-      <c r="F2" t="n">
-        <v>265400.0464351301</v>
-      </c>
       <c r="G2" t="n">
-        <v>265400.0464351301</v>
+        <v>265400.0464351302</v>
       </c>
       <c r="H2" t="n">
-        <v>265400.0464351301</v>
+        <v>265400.0464351302</v>
       </c>
       <c r="I2" t="n">
         <v>276600.2316721099</v>
@@ -26347,13 +26347,13 @@
         <v>276600.2316721099</v>
       </c>
       <c r="N2" t="n">
+        <v>276600.23167211</v>
+      </c>
+      <c r="O2" t="n">
         <v>276600.2316721099</v>
       </c>
-      <c r="O2" t="n">
-        <v>276600.23167211</v>
-      </c>
       <c r="P2" t="n">
-        <v>276600.23167211</v>
+        <v>276600.2316721099</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039033</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390624</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.8066720022</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520279</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18364.71563283952</v>
+        <v>18364.71563283946</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449901</v>
+        <v>160607.8294856136</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784481</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509506</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104681</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199828.8262465156</v>
+        <v>166168.3820999507</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="D4" t="n">
-        <v>193550.5929483865</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>65247.19221856657</v>
+        <v>65247.19221856656</v>
       </c>
       <c r="F4" t="n">
         <v>65247.19221856656</v>
@@ -26433,31 +26433,31 @@
         <v>65247.19221856656</v>
       </c>
       <c r="H4" t="n">
-        <v>65247.19221856655</v>
+        <v>65247.19221856656</v>
       </c>
       <c r="I4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="J4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="L4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="M4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933285</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933274</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="O4" t="n">
-        <v>68000.69828933274</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="P4" t="n">
-        <v>68000.69828933277</v>
+        <v>68000.69828933281</v>
       </c>
     </row>
     <row r="5">
@@ -26467,31 +26467,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814201</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.2709484696</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
+        <v>73519.34227764752</v>
+      </c>
+      <c r="F5" t="n">
         <v>73519.34227764753</v>
       </c>
-      <c r="F5" t="n">
-        <v>73519.34227764752</v>
-      </c>
       <c r="G5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="H5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-119967.5721009834</v>
+        <v>-161352.4319195316</v>
       </c>
       <c r="C6" t="n">
-        <v>22223.72855872656</v>
+        <v>33287.63275412681</v>
       </c>
       <c r="D6" t="n">
-        <v>15370.67237360614</v>
+        <v>50628.17712803294</v>
       </c>
       <c r="E6" t="n">
-        <v>-97165.7818131118</v>
+        <v>-35178.12182599524</v>
       </c>
       <c r="F6" t="n">
-        <v>126633.5119389161</v>
+        <v>126556.9533841193</v>
       </c>
       <c r="G6" t="n">
-        <v>126633.511938916</v>
+        <v>126556.9533841193</v>
       </c>
       <c r="H6" t="n">
-        <v>126633.511938916</v>
+        <v>126556.9533841193</v>
       </c>
       <c r="I6" t="n">
-        <v>112516.579144145</v>
+        <v>112493.3548047624</v>
       </c>
       <c r="J6" t="n">
-        <v>19866.82943199443</v>
+        <v>-29749.75904801173</v>
       </c>
       <c r="K6" t="n">
-        <v>130881.2947769845</v>
+        <v>117044.0618697571</v>
       </c>
       <c r="L6" t="n">
-        <v>121933.6836884751</v>
+        <v>130858.0704376019</v>
       </c>
       <c r="M6" t="n">
-        <v>-55909.69183348352</v>
+        <v>-4131.874175401453</v>
       </c>
       <c r="N6" t="n">
-        <v>130881.2947769847</v>
+        <v>130858.070437602</v>
       </c>
       <c r="O6" t="n">
-        <v>130881.2947769847</v>
+        <v>130858.070437602</v>
       </c>
       <c r="P6" t="n">
-        <v>130881.2947769847</v>
+        <v>130858.070437602</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773356</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26823,13 +26823,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773356</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052132</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.550515282532</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>69.06079487080569</v>
+        <v>69.06079487080547</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201042</v>
+        <v>613.8410568773356</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052132</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.550515282532</v>
+        <v>541.6845019060825</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773356</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052132</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.550515282532</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>352.3820787814524</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>188.7859682306103</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>216.2064639929665</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>80.25253718385889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>369.8422500230727</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>257.0232965362129</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>39.52293549722759</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -27831,16 +27831,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>220.3291415006775</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59.34402981239816</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>229.5149405222781</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27862,7 +27862,7 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,19 +28014,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>10.35978796128489</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>236.2898988798406</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773357</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805804222</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773356</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773356</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>47.47818213854703</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>65.00584608837562</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>150.1941962971705</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,13 +34951,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.1525905495951</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>131.4804315655613</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,10 +35173,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>290.2128107706632</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314079</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>288.2218006662745</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,16 +35337,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>175.2399828965318</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>309.6062697457102</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>661.5502973433599</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35489,19 +35489,19 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -35653,7 +35653,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>480.468961415464</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35662,13 +35662,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -35890,7 +35890,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>480.468961415464</v>
+        <v>40.81776196807323</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36124,13 +36124,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>40.81776196807232</v>
+        <v>1126.736919799244</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36519,16 +36519,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>168.8387779969835</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36762,7 +36762,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>446.726063795601</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512943</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -36847,13 +36847,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36993,10 +36993,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1005.515419242839</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.407914635246</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>661.3192390158824</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.407914635246</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>143.407914635246</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>661.3192390158824</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908061</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960965</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
